--- a/ogn/bin/config/cfg/消息提示.xlsx
+++ b/ogn/bin/config/cfg/消息提示.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\download\dev\dev\frame\bin\World\config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\ogn\ogn\bin\config\cfg\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>#comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,6 +94,10 @@
   </si>
   <si>
     <t>同意申请加入队伍的不是队长</t>
+  </si>
+  <si>
+    <t>已经选好角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -485,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B4" sqref="B4:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -587,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -598,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -609,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -620,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -631,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -642,6 +646,17 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
         <v>14</v>
       </c>
     </row>
